--- a/_DailyReport/_DailyReport_Statistic.xlsx
+++ b/_DailyReport/_DailyReport_Statistic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>Company 진행 관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>그래도 어느정도 복구는 했음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.20 ~ 2023.03.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,15 +776,15 @@
   <dimension ref="B2:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="54" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="54" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:54" x14ac:dyDescent="0.3">
@@ -977,7 +981,9 @@
       <c r="M3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1631,7 +1637,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>85.333333333333329</v>
       </c>
